--- a/Dataset Planetas.xlsx
+++ b/Dataset Planetas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ANA\UNIVERSIDAD\Estructuras de datos y algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28865189-0508-4E76-B2E8-FF1DD41A43DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B1F3F7-5592-4BBA-BA51-7F9550A392FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4FBDE96-B028-4DEC-8F52-E8FC0132E987}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4FBDE96-B028-4DEC-8F52-E8FC0132E987}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Planetas</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Error Neptuno</t>
+  </si>
+  <si>
+    <t>SATURNO</t>
+  </si>
+  <si>
+    <t>Error total</t>
   </si>
 </sst>
 </file>
@@ -429,16 +435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9965A1-6DEB-432A-A845-2AE9CCC22CB1}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
@@ -446,136 +453,268 @@
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>9.8000000000000007</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="E2">
-        <v>0.46</v>
+        <f>(C2*2)/D2^2</f>
+        <v>9.4517958412098295</v>
       </c>
       <c r="F2">
-        <f>(D2*2)/E2^2</f>
-        <v>9.4517958412098295</v>
+        <f>ABS(E2-B2)/B2</f>
+        <v>3.5531036611241955E-2</v>
       </c>
       <c r="G2">
-        <f>ABS(F2-B2)/B2</f>
-        <v>3.5531036611241955E-2</v>
+        <f>ABS(E2-B5)/B5</f>
+        <v>5.0199537912203281E-2</v>
       </c>
       <c r="H2">
-        <f>ABS(F2-B5)/B5</f>
-        <v>5.0199537912203281E-2</v>
+        <f>ABS(E2-B6)/B6</f>
+        <v>8.6413315081589684E-2</v>
       </c>
       <c r="I2">
-        <f>ABS(F2-B6)/B6</f>
-        <v>8.6413315081589684E-2</v>
-      </c>
-      <c r="J2">
-        <f>ABS(F2-B7)/B7</f>
+        <f>ABS(E2-B7)/B7</f>
         <v>0.14074583261728824</v>
       </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3.7</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="E3">
-        <v>0.66</v>
+        <f>(C3*2)/D3^2</f>
+        <v>9.1827364554637274</v>
       </c>
       <c r="F3">
-        <f>(D3*2)/E3^2</f>
-        <v>9.1827364554637274</v>
+        <f>ABS(E3-B2)/B2</f>
+        <v>6.2986075973089112E-2</v>
       </c>
       <c r="G3">
-        <f>ABS(F3-B2)/B2</f>
-        <v>6.2986075973089112E-2</v>
+        <f>ABS(E3-B5)/B5</f>
+        <v>2.0304050607080824E-2</v>
       </c>
       <c r="H3">
-        <f>ABS(F3-B5)/B5</f>
-        <v>2.0304050607080824E-2</v>
+        <f>ABS(E3-B6)/B6</f>
+        <v>5.5486948903876801E-2</v>
       </c>
       <c r="I3">
-        <f>ABS(F3-B6)/B6</f>
-        <v>5.5486948903876801E-2</v>
-      </c>
-      <c r="J3">
-        <f>ABS(F3-B7)/B7</f>
+        <f>ABS(E3-B7)/B7</f>
         <v>0.16520577677602477</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>24.8</v>
       </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <f xml:space="preserve"> C4*0.46</f>
+        <v>1.61</v>
+      </c>
+      <c r="E4">
+        <f>(C4*2)/D4^2</f>
+        <v>2.7005130974885225</v>
+      </c>
+      <c r="F4">
+        <f>ABS(E4-9.8)/9.8</f>
+        <v>0.72443743903178337</v>
+      </c>
+      <c r="G4">
+        <f>ABS(E4-9)/9</f>
+        <v>0.69994298916794184</v>
+      </c>
+      <c r="H4">
+        <f>ABS(E4-8.7)/8.7</f>
+        <v>0.6895961956909743</v>
+      </c>
+      <c r="I4">
+        <f>ABS(E4-11)/11</f>
+        <v>0.75449880931922519</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5">
+        <f xml:space="preserve"> C5*0.46</f>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E4:E7" si="0">(C5*2)/D5^2</f>
+        <v>3.7807183364839312</v>
+      </c>
+      <c r="F5">
+        <f>ABS(E5-9.8)/9.8</f>
+        <v>0.61421241464449694</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="1">ABS(E5-9)/9</f>
+        <v>0.57992018483511876</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H7" si="2">ABS(E5-8.7)/8.7</f>
+        <v>0.56543467396736424</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I7" si="3">ABS(E5-11)/11</f>
+        <v>0.65629833304691543</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>8.6999999999999993</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D7" si="4" xml:space="preserve"> C6*0.46</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.1505986137366095</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F7" si="5">ABS(E6-9.8)/9.8</f>
+        <v>0.67851034553708067</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.64993348736259893</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.63786222830613681</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.71358194420576282</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>11</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>(C7*D2)</f>
+        <v>1.84</v>
+      </c>
+      <c r="E7">
+        <f>(C7*2)/D7^2</f>
+        <v>2.3629489603024574</v>
+      </c>
+      <c r="F7">
+        <f>ABS(E7-B2)/B2</f>
+        <v>0.75888275915281045</v>
+      </c>
+      <c r="G7">
+        <f>ABS(E7-9)/9</f>
+        <v>0.73745011552194917</v>
+      </c>
+      <c r="H7">
+        <f>ABS(E7-8.7)/8.7</f>
+        <v>0.72839667122960261</v>
+      </c>
+      <c r="I7">
+        <f>ABS(E7-11)/11</f>
+        <v>0.78518645815432209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f>F2+F3+F4+F5+F6+F7</f>
+        <v>2.874560070950503</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:I9" si="6">G2+G3+G4+G5+G6+G7</f>
+        <v>2.7377503654068929</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>2.7631900331795443</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>3.2155171541195386</v>
       </c>
     </row>
   </sheetData>
